--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V02/Test_02/Strategic DA Quantity Offers.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V02/Test_02/Strategic DA Quantity Offers.xlsx
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.402358658013504e-05</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>4.589414108300771e-06</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>9.399999999999999e-05</v>
+        <v>5.4e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00025</v>
+        <v>7.089633308584781e-05</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.299999999999826e-05</v>
+        <v>8e-06</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000269</v>
+        <v>9.899999999999999e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.000175</v>
+        <v>7.3e-05</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -936,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>9.8e-05</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.000132281017535</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>5.396835997224294e-05</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1094,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.000185</v>
+        <v>4.4e-05</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0002179999999999</v>
+        <v>5.2e-05</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.499999999999805e-05</v>
+        <v>4.899999999999984e-05</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.000117</v>
+        <v>2.2e-05</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1415,73 +1415,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001197575880923</v>
+        <v>0.0002012260369602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0035766217873583</v>
+        <v>0.0010639196365265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0055227062178014</v>
+        <v>0.0018736273304113</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0064492481634538</v>
+        <v>0.0022805524886879</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008156951287468</v>
+        <v>0.0029618867418226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0069765829029574</v>
+        <v>0.0030806734156028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004713292812797</v>
+        <v>0.0018890608499431</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0031294813946389</v>
+        <v>0.0013236876351868</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0016259032422135</v>
+        <v>0.0006667493240808</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0020054419537304</v>
+        <v>0.0009476502392924</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0022925852374414</v>
+        <v>0.0009347212111551</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0024920024429613</v>
+        <v>0.0011813532350057</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0046277110542211</v>
+        <v>0.0013924022412553</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0095395444087147</v>
+        <v>0.0032026691617127</v>
       </c>
       <c r="P2" t="n">
-        <v>0.007948050466489401</v>
+        <v>0.0023889202318622</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0061939945245258</v>
+        <v>0.0029624550051753</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0038222761889776</v>
+        <v>0.0009950894564542999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0019528841805468</v>
+        <v>0.0002503800616463</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0014485329157936</v>
+        <v>2.813688151357286e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001320497771773</v>
+        <v>1.664223373462049e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000519</v>
+        <v>0.0001698963330858</v>
       </c>
       <c r="W2" t="n">
-        <v>0.000525281017535</v>
+        <v>0.0001789683599722</v>
       </c>
       <c r="X2" t="n">
-        <v>5.65778525674358e-05</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1494,61 +1494,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00025</v>
+        <v>7.3e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005382</v>
+        <v>0.002193</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0039</v>
+        <v>0.000486</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006175</v>
+        <v>0.000761</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005537</v>
+        <v>0.001464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004335</v>
+        <v>0.000955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.019546</v>
+        <v>0.009811</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001786</v>
+        <v>0.000935</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00098</v>
+        <v>0.000776</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001475</v>
+        <v>0.000395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00213</v>
+        <v>0.000253</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003252</v>
+        <v>0.000804</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004402</v>
+        <v>0.001347</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006444</v>
+        <v>0.001406</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006422</v>
+        <v>0.001408</v>
       </c>
       <c r="Q3" t="n">
         <v>0.000958</v>
       </c>
       <c r="R3" t="n">
-        <v>0.010961</v>
+        <v>0.005175</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000896</v>
+        <v>0.00019</v>
       </c>
       <c r="T3" t="n">
-        <v>0.000322</v>
+        <v>4.1e-05</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1573,61 +1573,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000453</v>
+        <v>0.000134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007431</v>
+        <v>0.001585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004601</v>
+        <v>0.001655</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005039</v>
+        <v>0.001151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006342</v>
+        <v>0.001931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005791</v>
+        <v>0.001988</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004879</v>
+        <v>0.001623</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002503</v>
+        <v>0.00114</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001176</v>
+        <v>0.000621</v>
       </c>
       <c r="K4" t="n">
         <v>0.005312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001795</v>
+        <v>0.000576</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002351</v>
+        <v>0.001253</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004947</v>
+        <v>0.001325</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00687</v>
+        <v>0.002059</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006492</v>
+        <v>0.00174</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004539</v>
+        <v>0.001853</v>
       </c>
       <c r="R4" t="n">
-        <v>0.012039</v>
+        <v>0.002576</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000943</v>
+        <v>0.000729</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00046</v>
+        <v>0.000201</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2.2e-05</v>
+        <v>1.1e-05</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1652,64 +1652,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000556</v>
+        <v>8.8e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005593</v>
+        <v>0.003208</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004099</v>
+        <v>0.001252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005182</v>
+        <v>0.000784</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005218</v>
+        <v>0.001164</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004007</v>
+        <v>0.001409</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003347</v>
+        <v>0.001318</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002566</v>
+        <v>0.001181</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001368</v>
+        <v>0.00049</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001364</v>
+        <v>0.000406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002082</v>
+        <v>0.000775</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002653</v>
+        <v>0.001093</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005141</v>
+        <v>0.001767</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007767</v>
+        <v>0.003217</v>
       </c>
       <c r="P5" t="n">
-        <v>0.006064</v>
+        <v>0.002103</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.015169</v>
+        <v>0.004589</v>
       </c>
       <c r="R5" t="n">
-        <v>0.010078</v>
+        <v>0.003366</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000847</v>
+        <v>0.000414</v>
       </c>
       <c r="T5" t="n">
-        <v>0.000286</v>
+        <v>3.7e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00232</v>
+        <v>0.001176</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4e-06</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1731,64 +1731,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.4e-05</v>
+        <v>0.000108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00501</v>
+        <v>0.001664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000684</v>
+        <v>0.000223</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001168</v>
+        <v>0.000322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001771</v>
+        <v>0.000491</v>
       </c>
       <c r="G6" t="n">
-        <v>0.019512</v>
+        <v>0.00624</v>
       </c>
       <c r="H6" t="n">
-        <v>0.016958</v>
+        <v>0.00728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001908</v>
+        <v>0.000585</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0008140000000000001</v>
+        <v>0.000467</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000683</v>
+        <v>0.000229</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001046</v>
+        <v>0.000374</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001721</v>
+        <v>0.000491</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002607</v>
+        <v>0.001009</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002799</v>
+        <v>0.000905</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001824</v>
+        <v>0.000593</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.016239</v>
+        <v>0.004217</v>
       </c>
       <c r="R6" t="n">
-        <v>0.010314</v>
+        <v>0.00199</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000421</v>
+        <v>0.000123</v>
       </c>
       <c r="T6" t="n">
-        <v>0.000118</v>
+        <v>3.9e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7e-05</v>
+        <v>1.3e-05</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000252</v>
+        <v>2.1e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00522</v>
+        <v>0.001361</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005176</v>
+        <v>0.001985</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005437</v>
+        <v>0.001866</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006173</v>
+        <v>0.002019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00176</v>
+        <v>0.001761</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004049</v>
+        <v>0.001259</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001831</v>
+        <v>0.000815</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001648</v>
+        <v>0.0004</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002648</v>
+        <v>0.001001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001787</v>
+        <v>0.001197</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002274</v>
+        <v>0.001084</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005948</v>
+        <v>0.001837</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007062</v>
+        <v>0.002183</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006196</v>
+        <v>0.002977</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.014982</v>
+        <v>0.002226</v>
       </c>
       <c r="R7" t="n">
-        <v>0.012259</v>
+        <v>0.003656</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000675</v>
+        <v>0.000471</v>
       </c>
       <c r="T7" t="n">
-        <v>7.499999999999999e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.1e-05</v>
+        <v>3e-06</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1889,61 +1889,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000427</v>
+        <v>0.00026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002519</v>
+        <v>0.000222</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004614</v>
+        <v>0.000434</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005583</v>
+        <v>0.000569</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004681</v>
+        <v>0.000616</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003741</v>
+        <v>0.000972</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01984</v>
+        <v>0.013095</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002341</v>
+        <v>0.000804</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0013</v>
+        <v>0.000357</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001491</v>
+        <v>0.000364</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001836</v>
+        <v>0.000947</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003189</v>
+        <v>0.000312</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00467</v>
+        <v>0.001518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005253</v>
+        <v>0.00149</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00483</v>
+        <v>0.001161</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00381</v>
+        <v>0.001081</v>
       </c>
       <c r="R8" t="n">
-        <v>0.011437</v>
+        <v>0.002888</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000806</v>
+        <v>0.000341</v>
       </c>
       <c r="T8" t="n">
-        <v>0.000307</v>
+        <v>4.7e-05</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8e-06</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1968,61 +1968,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.500000000000001e-05</v>
+        <v>3.6e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004138</v>
+        <v>0.001224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000377</v>
+        <v>0.000328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000401</v>
+        <v>0.000133</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000918</v>
+        <v>0.000529</v>
       </c>
       <c r="G9" t="n">
-        <v>0.018291</v>
+        <v>0.006563</v>
       </c>
       <c r="H9" t="n">
-        <v>0.015955</v>
+        <v>0.006081</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000796</v>
+        <v>0.000217</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005330000000000001</v>
+        <v>6.7e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.020355</v>
+        <v>0.006065</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000336</v>
+        <v>0.000122</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000858</v>
+        <v>0.00028</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001238</v>
+        <v>0.000495</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001624</v>
+        <v>0.000761</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001831</v>
+        <v>0.000725</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.007964000000000001</v>
+        <v>0.004084</v>
       </c>
       <c r="R9" t="n">
-        <v>0.007549</v>
+        <v>0.001439</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000589</v>
+        <v>0.000256</v>
       </c>
       <c r="T9" t="n">
-        <v>0.000184</v>
+        <v>3.4e-05</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.2e-05</v>
+        <v>6e-06</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000901</v>
+        <v>0.000307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003092</v>
+        <v>0.000926</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004068</v>
+        <v>0.001553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004449</v>
+        <v>0.001276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005287</v>
+        <v>0.001471</v>
       </c>
       <c r="G10" t="n">
         <v>0.006734</v>
@@ -2068,40 +2068,40 @@
         <v>0.002892</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002464</v>
+        <v>0.001112</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001244</v>
+        <v>0.000637</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001672</v>
+        <v>0.000508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001994</v>
+        <v>0.000547</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002411</v>
+        <v>0.00075</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005596</v>
+        <v>0.001233</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007779</v>
+        <v>0.001685</v>
       </c>
       <c r="P10" t="n">
-        <v>0.008808</v>
+        <v>0.001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.016231</v>
+        <v>0.006233</v>
       </c>
       <c r="R10" t="n">
-        <v>0.009055000000000001</v>
+        <v>0.002441</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000529</v>
+        <v>0.000107</v>
       </c>
       <c r="T10" t="n">
-        <v>0.00018</v>
+        <v>4.5e-05</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.5e-05</v>
+        <v>1.4e-05</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
